--- a/Souq/src/price/Souq/excel_50_colares.xlsx
+++ b/Souq/src/price/Souq/excel_50_colares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,2011 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>COLAR MAIDOI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-maidoi-02-09-06-032-011.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COLAR MALIA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-malia-02-09-06-088-005.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COLAR MALLU</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-mallu-02-09-06-050-011.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>COLAR MARQUESA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-marquesa-02-09-06-030-011.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COLAR VALLE NEVADO CQUI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-valle-nevado-cqui-02-09-04-658-021.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COLAR CAETANA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-caetana-02-09-04-991-006.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COLAR CIRA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-cira-02-09-04-990-029.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COLAR HAIDEE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-haidee-02-09-04-992-005.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLAR ISAURA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-isaura-02-09-04-993-008.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COLAR JENNY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-jenny-02-09-06-093-011.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COLAR JUSSARA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-jussara-02-09-04-994-029.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>COLAR LENI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-leni-02-09-04-988-009.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>COLAR LESLEY</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-lesley-02-09-06-091-011.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>COLAR MAITE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-maite-02-09-04-989-017.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>COLAR SALOME</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-salome-02-09-04-996-005.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>COLAR SARITA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-sarita-02-09-04-995-005.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CORDAO PARA PORTA CELULAR PEROLA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cordao-para-porta-celular-perola-02-16-03-205-035.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>COLAR CLEMENCE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-clemence-02-09-06-084-006.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>COLAR MANON</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-manon-02-09-06-083-006.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>COLAR DINORAH</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-dinorah-02-09-04-998-003.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>COLAR DINORAH</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-dinorah-02-09-04-998-035.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>COLAR ELVIRA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-elvira-02-09-04-999-011.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>COLAR IDA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ida-02-09-04-997-013.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>COLAR MEMPHIS</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-memphis-02-09-04-973-029.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>COLAR YEDA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-yeda-02-09-06-001-006.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>COLAR HELO</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-helo-02-09-06-087-035.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>COLAR HELO</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-helo-02-09-06-087-005.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>COLAR MARISKA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-mariska-02-09-06-076-008.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>COLAR HELO</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-helo-02-09-06-087-008.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>COLAR ANALU</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-analu-02-09-04-853-011.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>COLAR KELLY</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-kelly-02-09-04-972-002.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>COLAR GIZA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-giza-02-09-06-085-035.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>COLAR DAYO</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-dayo-02-09-06-033-005.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>COLAR JASMINE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-jasmine-02-09-04-857-029.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>COLAR YANDRA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-yandra-02-09-04-937-054.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>COLAR ANAHI</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-grazia-02-09-04-942-005.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>COLAR POTIRA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-maiara-02-09-04-943-009.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>COLAR AYSHA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-aysha-02-09-04-728-001.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>COLAR TIFFANY</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-trudy-02-09-04-968-011.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>COLAR RELICÁRIO ANA LUIZA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-relicario-ana-luiza-02-09-04-959-011.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>COLAR PACIFICA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-pacifica-02-09-06-081-010.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>COLAR ZAHARA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-drica-02-09-04-899-011.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>COLAR CUORE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-zaya-02-09-04-897-052.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>COLAR DRICA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-cuore-02-09-04-898-006.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>COLAR DRICA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-valeria-02-09-04-898-004.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>COLAR ALINA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-alina-02-09-04-983-017.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>COLAR ADELINA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-adelina-02-09-04-981-002.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>COLAR ADI</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-adi-02-09-04-987-003.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>COLAR CONCORDIA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-concordia-02-09-06-038-056.html</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>COLAR GINEVRA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ginevra-02-09-06-040-017.html</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>COLAR KENYA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-kenya-02-09-04-986-004.html</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>COLAR KENYA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-kenya-02-09-04-986-008.html</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>COLAR MAGDALENA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-magdalena-02-09-04-985-004.html</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>COLAR MATILDA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-matilda-02-09-04-984-006.html</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>COLAR XENIA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-xenia-02-09-04-982-002.html</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>COLAR PISCIS</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-aili-02-09-04-911-016.html</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>COLAR PHOENIX</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ailika-02-09-04-912-005.html</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>248,00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>COLAR DARLA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-darla-02-09-04-913-002.html</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>COLAR DARLINE</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-phoenix-02-09-04-914-006.html</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>COLAR MADURAI</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-madurai-02-09-04-798-011.html</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>COLARES</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>COLAR BORA BORA DOURADO</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-bora-bora-dourado-02-09-04-672-011.html</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
